--- a/numbersdata.xlsx
+++ b/numbersdata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
   <si>
     <t xml:space="preserve">number</t>
   </si>
@@ -28,7 +28,19 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
+    <t xml:space="preserve">email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">college</t>
+  </si>
+  <si>
     <t xml:space="preserve">Arbind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coding.arbind@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLLGE</t>
   </si>
   <si>
     <t xml:space="preserve">Das lite</t>
@@ -180,16 +192,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -210,171 +226,307 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D17:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="33.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.09"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
         <v>9779823270005</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
         <v>916003532560</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
         <f aca="false">918167783569</f>
         <v>918167783569</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
         <v>9779825205678</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
         <v>9779703385947</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
         <v>9779827221361</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
         <v>9779828355116</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
         <v>9779828326962</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
         <v>9779819430946</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
         <v>9779821815969</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
         <v>9779823406787</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
         <v>9779816292843</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>15</v>
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>17</v>
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>19</v>
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>21</v>
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>23</v>
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>25</v>
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="coding.arbind@gm"/>
+    <hyperlink ref="C3" r:id="rId2" display="coding.arbind@gm"/>
+    <hyperlink ref="C4" r:id="rId3" display="coding.arbind@gm"/>
+    <hyperlink ref="C5" r:id="rId4" display="coding.arbind@gm"/>
+    <hyperlink ref="C6" r:id="rId5" display="coding.arbind@gm"/>
+    <hyperlink ref="C7" r:id="rId6" display="coding.arbind@gm"/>
+    <hyperlink ref="C8" r:id="rId7" display="coding.arbind@gm"/>
+    <hyperlink ref="C9" r:id="rId8" display="coding.arbind@gm"/>
+    <hyperlink ref="C10" r:id="rId9" display="coding.arbind@gm"/>
+    <hyperlink ref="C11" r:id="rId10" display="coding.arbind@gm"/>
+    <hyperlink ref="C12" r:id="rId11" display="coding.arbind@gm"/>
+    <hyperlink ref="C13" r:id="rId12" display="coding.arbind@gm"/>
+    <hyperlink ref="C14" r:id="rId13" display="coding.arbind@gm"/>
+    <hyperlink ref="C15" r:id="rId14" display="coding.arbind@gm"/>
+    <hyperlink ref="C16" r:id="rId15" display="coding.arbind@gm"/>
+    <hyperlink ref="C17" r:id="rId16" display="coding.arbind@gm"/>
+    <hyperlink ref="C18" r:id="rId17" display="coding.arbind@gm"/>
+    <hyperlink ref="C19" r:id="rId18" display="coding.arbind@gm"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
